--- a/biology/Médecine/Méthode_PICO/Méthode_PICO.xlsx
+++ b/biology/Médecine/Méthode_PICO/Méthode_PICO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_PICO</t>
+          <t>Méthode_PICO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthode PICO est une approche utilisée, dans la pratique fondée sur les preuves, pour formuler clairement une question clinique (médecine fondée sur les faits) ou de recherche documentaire (par exemple pour une revue systématique).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_PICO</t>
+          <t>Méthode_PICO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Éléments</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le sigle PICO est un moyen mnémotechnique pour désigner les éléments essentiels de la question[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le sigle PICO est un moyen mnémotechnique pour désigner les éléments essentiels de la question :
 P : population-cible ;
 I : intervention à l'étude ;
 C : comparaison ou contrôle ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_PICO</t>
+          <t>Méthode_PICO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Question clinique : chez les enfants souffrant de maux de tête, le paracétamol est-il plus efficace que le placebo contre la douleur ?
 Population : enfants souffrant de maux de tête (mots-clés : enfants + maux de tête) ;
